--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama1-Itga7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama1-Itga7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itga7</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H2">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I2">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J2">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.356035</v>
+        <v>4.851622</v>
       </c>
       <c r="N2">
-        <v>4.068105</v>
+        <v>14.554866</v>
       </c>
       <c r="O2">
-        <v>0.02389128477470859</v>
+        <v>0.1304267807868642</v>
       </c>
       <c r="P2">
-        <v>0.02389128477470859</v>
+        <v>0.1304267807868642</v>
       </c>
       <c r="Q2">
-        <v>0.080362702205</v>
+        <v>0.068466089664</v>
       </c>
       <c r="R2">
-        <v>0.7232643198449999</v>
+        <v>0.616194806976</v>
       </c>
       <c r="S2">
-        <v>0.0105038703928451</v>
+        <v>0.02313345786557802</v>
       </c>
       <c r="T2">
-        <v>0.0105038703928451</v>
+        <v>0.02313345786557802</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H3">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I3">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J3">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>6.567596</v>
       </c>
       <c r="O3">
-        <v>0.03857036785462446</v>
+        <v>0.05885251047922296</v>
       </c>
       <c r="P3">
-        <v>0.03857036785462446</v>
+        <v>0.05885251047922296</v>
       </c>
       <c r="Q3">
-        <v>0.1297384805826666</v>
+        <v>0.030893971584</v>
       </c>
       <c r="R3">
-        <v>1.167646325244</v>
+        <v>0.278045744256</v>
       </c>
       <c r="S3">
-        <v>0.01695757046009577</v>
+        <v>0.01043851625594758</v>
       </c>
       <c r="T3">
-        <v>0.01695757046009577</v>
+        <v>0.01043851625594758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H4">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I4">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J4">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.022878333333333</v>
+        <v>0.1764276666666667</v>
       </c>
       <c r="N4">
-        <v>3.068635</v>
+        <v>0.5292830000000001</v>
       </c>
       <c r="O4">
-        <v>0.01802156843410824</v>
+        <v>0.004742927747683409</v>
       </c>
       <c r="P4">
-        <v>0.01802156843410824</v>
+        <v>0.004742927747683409</v>
       </c>
       <c r="Q4">
-        <v>0.06061883866833332</v>
+        <v>0.002489747232</v>
       </c>
       <c r="R4">
-        <v>0.5455695480149999</v>
+        <v>0.022407725088</v>
       </c>
       <c r="S4">
-        <v>0.007923233132612905</v>
+        <v>0.0008412407217948094</v>
       </c>
       <c r="T4">
-        <v>0.007923233132612905</v>
+        <v>0.0008412407217948092</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H5">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I5">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J5">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.07351833333333</v>
+        <v>28.76236666666667</v>
       </c>
       <c r="N5">
-        <v>153.220555</v>
+        <v>86.28710000000001</v>
       </c>
       <c r="O5">
-        <v>0.8998381095974417</v>
+        <v>0.7732224176048222</v>
       </c>
       <c r="P5">
-        <v>0.8998381095974416</v>
+        <v>0.7732224176048221</v>
       </c>
       <c r="Q5">
-        <v>3.026769916988333</v>
+        <v>0.4058945184</v>
       </c>
       <c r="R5">
-        <v>27.24092925289499</v>
+        <v>3.6530506656</v>
       </c>
       <c r="S5">
-        <v>0.3956163499319201</v>
+        <v>0.1371444431156506</v>
       </c>
       <c r="T5">
-        <v>0.3956163499319201</v>
+        <v>0.1371444431156506</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H6">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I6">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J6">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.624846</v>
+        <v>0.8418256666666667</v>
       </c>
       <c r="N6">
-        <v>1.874538</v>
+        <v>2.525477</v>
       </c>
       <c r="O6">
-        <v>0.01100884101541447</v>
+        <v>0.02263090811425316</v>
       </c>
       <c r="P6">
-        <v>0.01100884101541447</v>
+        <v>0.02263090811425315</v>
       </c>
       <c r="Q6">
-        <v>0.037030248498</v>
+        <v>0.011879843808</v>
       </c>
       <c r="R6">
-        <v>0.3332722364819999</v>
+        <v>0.106918594272</v>
       </c>
       <c r="S6">
-        <v>0.004840067844478711</v>
+        <v>0.004013985135279595</v>
       </c>
       <c r="T6">
-        <v>0.004840067844478712</v>
+        <v>0.004013985135279593</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H7">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I7">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J7">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.492087</v>
+        <v>0.3766100000000001</v>
       </c>
       <c r="N7">
-        <v>1.476261</v>
+        <v>1.12983</v>
       </c>
       <c r="O7">
-        <v>0.00866982832370258</v>
+        <v>0.01012445526715414</v>
       </c>
       <c r="P7">
-        <v>0.00866982832370258</v>
+        <v>0.01012445526715414</v>
       </c>
       <c r="Q7">
-        <v>0.02916255188099999</v>
+        <v>0.005314720320000001</v>
       </c>
       <c r="R7">
-        <v>0.262462966929</v>
+        <v>0.04783248288000001</v>
       </c>
       <c r="S7">
-        <v>0.003811714351033687</v>
+        <v>0.001795748219204905</v>
       </c>
       <c r="T7">
-        <v>0.003811714351033688</v>
+        <v>0.001795748219204904</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H8">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I8">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J8">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.356035</v>
+        <v>4.851622</v>
       </c>
       <c r="N8">
-        <v>4.068105</v>
+        <v>14.554866</v>
       </c>
       <c r="O8">
-        <v>0.02389128477470859</v>
+        <v>0.1304267807868642</v>
       </c>
       <c r="P8">
-        <v>0.02389128477470859</v>
+        <v>0.1304267807868642</v>
       </c>
       <c r="Q8">
-        <v>0.10242403562</v>
+        <v>0.287521674586</v>
       </c>
       <c r="R8">
-        <v>0.9218163205800001</v>
+        <v>2.587695071274</v>
       </c>
       <c r="S8">
-        <v>0.01338741438186349</v>
+        <v>0.0971483923956739</v>
       </c>
       <c r="T8">
-        <v>0.01338741438186349</v>
+        <v>0.09714839239567387</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H9">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I9">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J9">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>6.567596</v>
       </c>
       <c r="O9">
-        <v>0.03857036785462446</v>
+        <v>0.05885251047922296</v>
       </c>
       <c r="P9">
-        <v>0.03857036785462446</v>
+        <v>0.05885251047922296</v>
       </c>
       <c r="Q9">
-        <v>0.1653545536906667</v>
+        <v>0.1297384805826667</v>
       </c>
       <c r="R9">
-        <v>1.488190983216</v>
+        <v>1.167646325244</v>
       </c>
       <c r="S9">
-        <v>0.02161279739452869</v>
+        <v>0.04383629456322431</v>
       </c>
       <c r="T9">
-        <v>0.02161279739452869</v>
+        <v>0.04383629456322429</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H10">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I10">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J10">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.022878333333333</v>
+        <v>0.1764276666666667</v>
       </c>
       <c r="N10">
-        <v>3.068635</v>
+        <v>0.5292830000000001</v>
       </c>
       <c r="O10">
-        <v>0.01802156843410824</v>
+        <v>0.004742927747683409</v>
       </c>
       <c r="P10">
-        <v>0.01802156843410824</v>
+        <v>0.004742927747683409</v>
       </c>
       <c r="Q10">
-        <v>0.07726004627333334</v>
+        <v>0.01045563280966667</v>
       </c>
       <c r="R10">
-        <v>0.6953404164600001</v>
+        <v>0.09410069528700001</v>
       </c>
       <c r="S10">
-        <v>0.01009833530149533</v>
+        <v>0.003532769904742474</v>
       </c>
       <c r="T10">
-        <v>0.01009833530149534</v>
+        <v>0.003532769904742473</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H11">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I11">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J11">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>51.07351833333333</v>
+        <v>28.76236666666667</v>
       </c>
       <c r="N11">
-        <v>153.220555</v>
+        <v>86.28710000000001</v>
       </c>
       <c r="O11">
-        <v>0.8998381095974417</v>
+        <v>0.7732224176048222</v>
       </c>
       <c r="P11">
-        <v>0.8998381095974416</v>
+        <v>0.7732224176048221</v>
       </c>
       <c r="Q11">
-        <v>3.857684986753333</v>
+        <v>1.704544135766667</v>
       </c>
       <c r="R11">
-        <v>34.71916488078</v>
+        <v>15.3408972219</v>
       </c>
       <c r="S11">
-        <v>0.5042217596655214</v>
+        <v>0.5759347457740081</v>
       </c>
       <c r="T11">
-        <v>0.5042217596655215</v>
+        <v>0.5759347457740078</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H12">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I12">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J12">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.624846</v>
+        <v>0.8418256666666667</v>
       </c>
       <c r="N12">
-        <v>1.874538</v>
+        <v>2.525477</v>
       </c>
       <c r="O12">
-        <v>0.01100884101541447</v>
+        <v>0.02263090811425316</v>
       </c>
       <c r="P12">
-        <v>0.01100884101541447</v>
+        <v>0.02263090811425315</v>
       </c>
       <c r="Q12">
-        <v>0.04719586807200001</v>
+        <v>0.04988911448366667</v>
       </c>
       <c r="R12">
-        <v>0.424762812648</v>
+        <v>0.449002030353</v>
       </c>
       <c r="S12">
-        <v>0.006168773170935762</v>
+        <v>0.01685663272903023</v>
       </c>
       <c r="T12">
-        <v>0.006168773170935763</v>
+        <v>0.01685663272903022</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H13">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I13">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J13">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,400 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.492087</v>
+        <v>0.3766100000000001</v>
       </c>
       <c r="N13">
-        <v>1.476261</v>
+        <v>1.12983</v>
       </c>
       <c r="O13">
-        <v>0.00866982832370258</v>
+        <v>0.01012445526715414</v>
       </c>
       <c r="P13">
-        <v>0.00866982832370258</v>
+        <v>0.01012445526715414</v>
       </c>
       <c r="Q13">
-        <v>0.037168315284</v>
+        <v>0.02231903843</v>
       </c>
       <c r="R13">
-        <v>0.334514837556</v>
+        <v>0.20087134587</v>
       </c>
       <c r="S13">
-        <v>0.004858113972668891</v>
+        <v>0.00754120087264316</v>
       </c>
       <c r="T13">
-        <v>0.004858113972668892</v>
+        <v>0.007541200872643157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.018566</v>
+      </c>
+      <c r="I14">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J14">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.851622</v>
+      </c>
+      <c r="N14">
+        <v>14.554866</v>
+      </c>
+      <c r="O14">
+        <v>0.1304267807868642</v>
+      </c>
+      <c r="P14">
+        <v>0.1304267807868642</v>
+      </c>
+      <c r="Q14">
+        <v>0.03002507135066666</v>
+      </c>
+      <c r="R14">
+        <v>0.270225642156</v>
+      </c>
+      <c r="S14">
+        <v>0.01014493052561228</v>
+      </c>
+      <c r="T14">
+        <v>0.01014493052561228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.018566</v>
+      </c>
+      <c r="I15">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J15">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.189198666666667</v>
+      </c>
+      <c r="N15">
+        <v>6.567596</v>
+      </c>
+      <c r="O15">
+        <v>0.05885251047922296</v>
+      </c>
+      <c r="P15">
+        <v>0.05885251047922296</v>
+      </c>
+      <c r="Q15">
+        <v>0.01354822081511111</v>
+      </c>
+      <c r="R15">
+        <v>0.121933987336</v>
+      </c>
+      <c r="S15">
+        <v>0.004577699660051084</v>
+      </c>
+      <c r="T15">
+        <v>0.004577699660051083</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.018566</v>
+      </c>
+      <c r="I16">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J16">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1764276666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.5292830000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.004742927747683409</v>
+      </c>
+      <c r="P16">
+        <v>0.004742927747683409</v>
+      </c>
+      <c r="Q16">
+        <v>0.001091852019777778</v>
+      </c>
+      <c r="R16">
+        <v>0.009826668178</v>
+      </c>
+      <c r="S16">
+        <v>0.0003689171211461269</v>
+      </c>
+      <c r="T16">
+        <v>0.0003689171211461268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.018566</v>
+      </c>
+      <c r="I17">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J17">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>28.76236666666667</v>
+      </c>
+      <c r="N17">
+        <v>86.28710000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.7732224176048222</v>
+      </c>
+      <c r="P17">
+        <v>0.7732224176048221</v>
+      </c>
+      <c r="Q17">
+        <v>0.1780006998444444</v>
+      </c>
+      <c r="R17">
+        <v>1.6020062986</v>
+      </c>
+      <c r="S17">
+        <v>0.06014322871516366</v>
+      </c>
+      <c r="T17">
+        <v>0.06014322871516364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.018566</v>
+      </c>
+      <c r="I18">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J18">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.8418256666666667</v>
+      </c>
+      <c r="N18">
+        <v>2.525477</v>
+      </c>
+      <c r="O18">
+        <v>0.02263090811425316</v>
+      </c>
+      <c r="P18">
+        <v>0.02263090811425315</v>
+      </c>
+      <c r="Q18">
+        <v>0.005209778442444444</v>
+      </c>
+      <c r="R18">
+        <v>0.046888005982</v>
+      </c>
+      <c r="S18">
+        <v>0.001760290249943333</v>
+      </c>
+      <c r="T18">
+        <v>0.001760290249943332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.018566</v>
+      </c>
+      <c r="I19">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J19">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3766100000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.12983</v>
+      </c>
+      <c r="O19">
+        <v>0.01012445526715414</v>
+      </c>
+      <c r="P19">
+        <v>0.01012445526715414</v>
+      </c>
+      <c r="Q19">
+        <v>0.002330713753333334</v>
+      </c>
+      <c r="R19">
+        <v>0.02097642378</v>
+      </c>
+      <c r="S19">
+        <v>0.0007875061753060812</v>
+      </c>
+      <c r="T19">
+        <v>0.0007875061753060811</v>
       </c>
     </row>
   </sheetData>
